--- a/salary/Mangrove Salary Feb-25.xlsx
+++ b/salary/Mangrove Salary Feb-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mangrove\salary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72828F29-FB9F-4FE9-8BD2-5A5C51753C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183B3C0-82E8-4EA5-B3AB-4A47C13101F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
